--- a/MillenniumHistory/x64/StaticDebugWindows/Resource/AncientBooks/Category.xlsx
+++ b/MillenniumHistory/x64/StaticDebugWindows/Resource/AncientBooks/Category.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="8844"/>
+    <workbookView windowWidth="22368" windowHeight="9444"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1187,8 +1187,8 @@
   <sheetPr/>
   <dimension ref="A1:C80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A68" workbookViewId="0">
-      <selection activeCell="F77" sqref="F77"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.77777777777778" defaultRowHeight="15.6" outlineLevelCol="2"/>
@@ -1300,7 +1300,7 @@
     </row>
     <row r="11" s="1" customFormat="1" spans="1:3">
       <c r="A11" s="1">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B11" s="1">
         <f t="shared" ref="B10:B41" si="0">INT(A11/10)</f>
@@ -1312,7 +1312,7 @@
     </row>
     <row r="12" s="1" customFormat="1" spans="1:3">
       <c r="A12" s="1">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" s="1">
         <f t="shared" si="0"/>
@@ -1324,7 +1324,7 @@
     </row>
     <row r="13" s="1" customFormat="1" spans="1:3">
       <c r="A13" s="1">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" s="1">
         <f t="shared" si="0"/>
@@ -1336,7 +1336,7 @@
     </row>
     <row r="14" s="1" customFormat="1" spans="1:3">
       <c r="A14" s="1">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B14" s="1">
         <f t="shared" si="0"/>
@@ -1348,7 +1348,7 @@
     </row>
     <row r="15" s="1" customFormat="1" spans="1:3">
       <c r="A15" s="1">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B15" s="1">
         <f t="shared" si="0"/>
@@ -1360,7 +1360,7 @@
     </row>
     <row r="17" s="1" customFormat="1" spans="1:3">
       <c r="A17" s="1">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B17" s="1">
         <f t="shared" si="0"/>
@@ -1372,7 +1372,7 @@
     </row>
     <row r="18" s="1" customFormat="1" spans="1:3">
       <c r="A18" s="1">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B18" s="1">
         <f t="shared" si="0"/>
@@ -1384,7 +1384,7 @@
     </row>
     <row r="19" s="1" customFormat="1" spans="1:3">
       <c r="A19" s="1">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B19" s="1">
         <f t="shared" si="0"/>
@@ -1396,7 +1396,7 @@
     </row>
     <row r="20" s="1" customFormat="1" spans="1:3">
       <c r="A20" s="1">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B20" s="1">
         <f t="shared" si="0"/>
@@ -1408,7 +1408,7 @@
     </row>
     <row r="21" s="1" customFormat="1" spans="1:3">
       <c r="A21" s="1">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B21" s="1">
         <f t="shared" si="0"/>
@@ -1420,7 +1420,7 @@
     </row>
     <row r="23" s="1" customFormat="1" spans="1:3">
       <c r="A23" s="1">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B23" s="1">
         <f t="shared" si="0"/>
@@ -1432,7 +1432,7 @@
     </row>
     <row r="24" s="1" customFormat="1" spans="1:3">
       <c r="A24" s="1">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B24" s="1">
         <f t="shared" si="0"/>
@@ -1444,7 +1444,7 @@
     </row>
     <row r="25" s="1" customFormat="1" spans="1:3">
       <c r="A25" s="1">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B25" s="1">
         <f t="shared" si="0"/>
@@ -1456,7 +1456,7 @@
     </row>
     <row r="26" s="1" customFormat="1" spans="1:3">
       <c r="A26" s="1">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B26" s="1">
         <f t="shared" si="0"/>
@@ -1468,7 +1468,7 @@
     </row>
     <row r="27" s="1" customFormat="1" spans="1:3">
       <c r="A27" s="1">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B27" s="1">
         <f t="shared" si="0"/>
@@ -1480,7 +1480,7 @@
     </row>
     <row r="28" s="1" customFormat="1" spans="1:3">
       <c r="A28" s="1">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B28" s="1">
         <f t="shared" si="0"/>
@@ -1492,7 +1492,7 @@
     </row>
     <row r="30" s="1" customFormat="1" spans="1:3">
       <c r="A30" s="1">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B30" s="1">
         <f t="shared" si="0"/>
@@ -1504,7 +1504,7 @@
     </row>
     <row r="31" s="1" customFormat="1" spans="1:3">
       <c r="A31" s="1">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B31" s="1">
         <f t="shared" si="0"/>
@@ -1516,7 +1516,7 @@
     </row>
     <row r="32" s="1" customFormat="1" spans="1:3">
       <c r="A32" s="1">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B32" s="1">
         <f t="shared" si="0"/>
@@ -1528,7 +1528,7 @@
     </row>
     <row r="33" s="1" customFormat="1" spans="1:3">
       <c r="A33" s="1">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B33" s="1">
         <f t="shared" si="0"/>
@@ -1540,7 +1540,7 @@
     </row>
     <row r="34" s="1" customFormat="1" spans="1:3">
       <c r="A34" s="1">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B34" s="1">
         <f t="shared" si="0"/>
@@ -1552,7 +1552,7 @@
     </row>
     <row r="36" s="1" customFormat="1" spans="1:3">
       <c r="A36" s="1">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B36" s="1">
         <f t="shared" si="0"/>
@@ -1564,7 +1564,7 @@
     </row>
     <row r="37" s="1" customFormat="1" spans="1:3">
       <c r="A37" s="1">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B37" s="1">
         <f t="shared" si="0"/>
@@ -1576,7 +1576,7 @@
     </row>
     <row r="38" s="1" customFormat="1" spans="1:3">
       <c r="A38" s="1">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B38" s="1">
         <f t="shared" si="0"/>
@@ -1588,7 +1588,7 @@
     </row>
     <row r="39" s="1" customFormat="1" spans="1:3">
       <c r="A39" s="1">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B39" s="1">
         <f t="shared" si="0"/>
@@ -1600,7 +1600,7 @@
     </row>
     <row r="40" s="1" customFormat="1" spans="1:3">
       <c r="A40" s="1">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B40" s="1">
         <f t="shared" si="0"/>
@@ -1612,7 +1612,7 @@
     </row>
     <row r="41" s="1" customFormat="1" spans="1:3">
       <c r="A41" s="1">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B41" s="1">
         <f t="shared" si="0"/>
@@ -1624,10 +1624,10 @@
     </row>
     <row r="43" s="1" customFormat="1" spans="1:3">
       <c r="A43" s="1">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B43" s="1">
-        <f t="shared" ref="B42:B73" si="1">INT(A43/10)</f>
+        <f t="shared" ref="B42:B74" si="1">INT(A43/10)</f>
         <v>7</v>
       </c>
       <c r="C43" s="1" t="s">
@@ -1636,7 +1636,7 @@
     </row>
     <row r="44" s="1" customFormat="1" spans="1:3">
       <c r="A44" s="1">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B44" s="1">
         <f t="shared" si="1"/>
@@ -1648,7 +1648,7 @@
     </row>
     <row r="45" s="1" customFormat="1" spans="1:3">
       <c r="A45" s="1">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B45" s="1">
         <f t="shared" si="1"/>
@@ -1660,7 +1660,7 @@
     </row>
     <row r="46" s="1" customFormat="1" spans="1:3">
       <c r="A46" s="1">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B46" s="1">
         <f t="shared" si="1"/>
@@ -1672,7 +1672,7 @@
     </row>
     <row r="47" s="1" customFormat="1" spans="1:3">
       <c r="A47" s="1">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B47" s="1">
         <f t="shared" si="1"/>
@@ -1684,7 +1684,7 @@
     </row>
     <row r="48" s="1" customFormat="1" spans="1:3">
       <c r="A48" s="1">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B48" s="1">
         <f t="shared" si="1"/>
@@ -1696,7 +1696,7 @@
     </row>
     <row r="50" s="1" customFormat="1" spans="1:3">
       <c r="A50" s="1">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B50" s="1">
         <f t="shared" si="1"/>
@@ -1708,7 +1708,7 @@
     </row>
     <row r="51" s="1" customFormat="1" spans="1:3">
       <c r="A51" s="1">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B51" s="1">
         <f t="shared" si="1"/>
@@ -1720,7 +1720,7 @@
     </row>
     <row r="52" s="1" customFormat="1" spans="1:3">
       <c r="A52" s="1">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B52" s="1">
         <f t="shared" si="1"/>
@@ -1732,7 +1732,7 @@
     </row>
     <row r="53" s="1" customFormat="1" spans="1:3">
       <c r="A53" s="1">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B53" s="1">
         <f t="shared" si="1"/>
@@ -1744,7 +1744,7 @@
     </row>
     <row r="54" s="1" customFormat="1" spans="1:3">
       <c r="A54" s="1">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B54" s="1">
         <f t="shared" si="1"/>
@@ -1756,7 +1756,7 @@
     </row>
     <row r="55" s="1" customFormat="1" spans="1:3">
       <c r="A55" s="1">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B55" s="1">
         <f t="shared" si="1"/>
@@ -1768,7 +1768,7 @@
     </row>
     <row r="57" s="1" customFormat="1" spans="1:3">
       <c r="A57" s="1">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B57" s="1">
         <f t="shared" si="1"/>
@@ -1780,7 +1780,7 @@
     </row>
     <row r="58" s="1" customFormat="1" spans="1:3">
       <c r="A58" s="1">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B58" s="1">
         <f t="shared" si="1"/>
@@ -1792,7 +1792,7 @@
     </row>
     <row r="59" s="1" customFormat="1" spans="1:3">
       <c r="A59" s="1">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B59" s="1">
         <f t="shared" si="1"/>
@@ -1804,7 +1804,7 @@
     </row>
     <row r="60" s="1" customFormat="1" spans="1:3">
       <c r="A60" s="1">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B60" s="1">
         <f t="shared" si="1"/>
@@ -1816,7 +1816,7 @@
     </row>
     <row r="61" s="1" customFormat="1" spans="1:3">
       <c r="A61" s="1">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B61" s="1">
         <f t="shared" si="1"/>
@@ -1828,7 +1828,7 @@
     </row>
     <row r="62" s="1" customFormat="1" spans="1:3">
       <c r="A62" s="1">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B62" s="1">
         <f t="shared" si="1"/>
@@ -1840,7 +1840,7 @@
     </row>
     <row r="64" s="1" customFormat="1" spans="1:3">
       <c r="A64" s="1">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B64" s="1">
         <f t="shared" si="1"/>
@@ -1852,7 +1852,7 @@
     </row>
     <row r="65" s="1" customFormat="1" spans="1:3">
       <c r="A65" s="1">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B65" s="1">
         <f t="shared" si="1"/>
@@ -1864,7 +1864,7 @@
     </row>
     <row r="66" s="1" customFormat="1" spans="1:3">
       <c r="A66" s="1">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B66" s="1">
         <f t="shared" si="1"/>
@@ -1876,7 +1876,7 @@
     </row>
     <row r="67" s="1" customFormat="1" spans="1:3">
       <c r="A67" s="1">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B67" s="1">
         <f t="shared" si="1"/>
@@ -1888,7 +1888,7 @@
     </row>
     <row r="68" s="1" customFormat="1" spans="1:3">
       <c r="A68" s="1">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B68" s="1">
         <f t="shared" si="1"/>
@@ -1900,7 +1900,7 @@
     </row>
     <row r="70" s="1" customFormat="1" spans="1:3">
       <c r="A70" s="1">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B70" s="1">
         <f t="shared" si="1"/>
@@ -1912,7 +1912,7 @@
     </row>
     <row r="71" s="1" customFormat="1" spans="1:3">
       <c r="A71" s="1">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B71" s="1">
         <f t="shared" si="1"/>
@@ -1924,7 +1924,7 @@
     </row>
     <row r="72" s="1" customFormat="1" spans="1:3">
       <c r="A72" s="1">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B72" s="1">
         <f t="shared" si="1"/>
@@ -1936,7 +1936,7 @@
     </row>
     <row r="73" s="1" customFormat="1" spans="1:3">
       <c r="A73" s="1">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B73" s="1">
         <f t="shared" si="1"/>
@@ -1948,10 +1948,10 @@
     </row>
     <row r="74" s="1" customFormat="1" spans="1:3">
       <c r="A74" s="1">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B74" s="1">
-        <f>INT(A74/10)</f>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="C74" s="1" t="s">
@@ -1960,7 +1960,7 @@
     </row>
     <row r="76" s="1" customFormat="1" spans="1:3">
       <c r="A76" s="1">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B76" s="1">
         <f>INT(A76/10)</f>
@@ -1972,7 +1972,7 @@
     </row>
     <row r="77" s="1" customFormat="1" spans="1:3">
       <c r="A77" s="1">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B77" s="1">
         <f>INT(A77/10)</f>
@@ -1984,7 +1984,7 @@
     </row>
     <row r="78" s="1" customFormat="1" spans="1:3">
       <c r="A78" s="1">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B78" s="1">
         <f>INT(A78/10)</f>
@@ -1996,7 +1996,7 @@
     </row>
     <row r="79" s="1" customFormat="1" spans="1:3">
       <c r="A79" s="1">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B79" s="1">
         <f>INT(A79/10)</f>
@@ -2008,7 +2008,7 @@
     </row>
     <row r="80" s="1" customFormat="1" spans="1:3">
       <c r="A80" s="1">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B80" s="1">
         <f>INT(A80/10)</f>

--- a/MillenniumHistory/x64/StaticDebugWindows/Resource/AncientBooks/Category.xlsx
+++ b/MillenniumHistory/x64/StaticDebugWindows/Resource/AncientBooks/Category.xlsx
@@ -4,12 +4,25 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9444"/>
+    <workbookView windowWidth="28800" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -244,7 +257,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -265,34 +278,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -306,14 +291,6 @@
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -353,6 +330,21 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -403,7 +395,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -418,49 +431,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -472,121 +569,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -609,21 +622,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -656,6 +654,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -714,148 +727,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -869,52 +882,52 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
     <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
@@ -1187,14 +1200,14 @@
   <sheetPr/>
   <dimension ref="A1:C80"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.77777777777778" defaultRowHeight="15.6" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9.775" defaultRowHeight="14.25" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="10.4444444444444" style="1"/>
-    <col min="2" max="16384" width="9.77777777777778" style="1"/>
+    <col min="1" max="1" width="10.4416666666667" style="1"/>
+    <col min="2" max="16384" width="9.775" style="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:2">
